--- a/data/trans_orig/P62-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P62-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0802C66C-B13E-4422-91A5-D8C80AD2DA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F492757-121F-4ECD-AC94-343E85FFE46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B17DDC4-FAD4-4AAC-B698-BDC1C0D9A099}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{94107CDB-C7D4-4EBC-97CE-5C0AF30D3506}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población según si percibe alguna pensión en 2007 (Tasa respuesta: 56,61%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>78,73%</t>
   </si>
   <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>38,85%</t>
   </si>
   <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>21,27%</t>
   </si>
   <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
   </si>
   <si>
     <t>61,15%</t>
   </si>
   <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
   </si>
   <si>
     <t>46,84%</t>
   </si>
   <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>30,0%</t>
   </si>
   <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>70,0%</t>
   </si>
   <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
   </si>
   <si>
     <t>91,41%</t>
   </si>
   <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>83,69%</t>
   </si>
   <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,685 +197,667 @@
     <t>41,92%</t>
   </si>
   <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
   </si>
   <si>
     <t>22,28%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>30,9%</t>
   </si>
   <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
   </si>
   <si>
     <t>58,08%</t>
   </si>
   <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
   </si>
   <si>
     <t>77,72%</t>
   </si>
   <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>69,1%</t>
   </si>
   <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
   </si>
   <si>
     <t>54,56%</t>
   </si>
   <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
   </si>
   <si>
     <t>35,61%</t>
   </si>
   <si>
-    <t>34,19%</t>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2015 (Tasa respuesta: 63,37%)</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2015 (Tasa respuesta: 63,37%)</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
     <t>46,0%</t>
   </si>
   <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
   </si>
   <si>
     <t>38,14%</t>
   </si>
   <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
   </si>
   <si>
     <t>54,0%</t>
   </si>
   <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
   </si>
   <si>
     <t>67,43%</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
   </si>
   <si>
     <t>61,86%</t>
   </si>
   <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
   </si>
   <si>
     <t>57,2%</t>
   </si>
   <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
   </si>
   <si>
     <t>34,51%</t>
   </si>
   <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
   </si>
   <si>
     <t>45,04%</t>
   </si>
   <si>
-    <t>40,68%</t>
+    <t>40,67%</t>
   </si>
   <si>
     <t>49,49%</t>
@@ -884,19 +866,19 @@
     <t>42,8%</t>
   </si>
   <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>65,49%</t>
   </si>
   <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
   </si>
   <si>
     <t>54,96%</t>
@@ -905,55 +887,55 @@
     <t>50,51%</t>
   </si>
   <si>
-    <t>59,32%</t>
+    <t>59,33%</t>
   </si>
   <si>
     <t>56,36%</t>
   </si>
   <si>
-    <t>53,58%</t>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
   </si>
   <si>
     <t>59,3%</t>
   </si>
   <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
   </si>
   <si>
     <t>53,0%</t>
   </si>
   <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>47,58%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A448613E-3740-429A-BA65-24C28F9C6340}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67BD124-BA5C-494D-BD06-FCD36E935BA4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1969,13 +1951,13 @@
         <v>578130</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1318</v>
@@ -1984,13 +1966,13 @@
         <v>1319809</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,13 +1987,13 @@
         <v>617664</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1750</v>
@@ -2020,13 +2002,13 @@
         <v>1768410</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>2368</v>
@@ -2035,13 +2017,13 @@
         <v>2386075</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,7 +2079,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E64A0D-F5A8-45C4-9B81-45397A6B633F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8026891-C4D2-435B-B998-D94802CEB8ED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2133,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2240,13 +2222,13 @@
         <v>550111</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>503</v>
@@ -2255,13 +2237,13 @@
         <v>537920</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1004</v>
@@ -2270,13 +2252,13 @@
         <v>1088030</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2273,13 @@
         <v>235484</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>601</v>
@@ -2306,13 +2288,13 @@
         <v>646543</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>827</v>
@@ -2321,13 +2303,13 @@
         <v>882028</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2377,13 @@
         <v>275453</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>152</v>
@@ -2410,13 +2392,13 @@
         <v>171612</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>399</v>
@@ -2425,13 +2407,13 @@
         <v>447066</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2428,13 @@
         <v>755483</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>929</v>
@@ -2461,13 +2443,13 @@
         <v>992649</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>1654</v>
@@ -2476,13 +2458,13 @@
         <v>1748131</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2532,13 @@
         <v>45626</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -2565,13 +2547,13 @@
         <v>35576</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -2580,13 +2562,13 @@
         <v>81201</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2583,13 @@
         <v>116164</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>169</v>
@@ -2616,13 +2598,13 @@
         <v>186129</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>281</v>
@@ -2631,13 +2613,13 @@
         <v>302294</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2687,13 @@
         <v>871189</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>686</v>
@@ -2720,13 +2702,13 @@
         <v>745108</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1472</v>
@@ -2735,13 +2717,13 @@
         <v>1616297</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2738,13 @@
         <v>1107132</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1699</v>
@@ -2771,13 +2753,13 @@
         <v>1825320</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>2762</v>
@@ -2786,13 +2768,13 @@
         <v>2932453</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,7 +2830,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A82870E-9462-47DE-B754-9C8B51041B46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAFA1AE-9BCA-4D87-9899-8D8E5750F65F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,13 +2973,13 @@
         <v>440479</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>366</v>
@@ -3006,13 +2988,13 @@
         <v>428605</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>830</v>
@@ -3021,13 +3003,13 @@
         <v>869084</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3024,13 @@
         <v>167389</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>443</v>
@@ -3057,13 +3039,13 @@
         <v>481439</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>603</v>
@@ -3072,13 +3054,13 @@
         <v>648828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3128,13 @@
         <v>388530</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>227</v>
@@ -3161,13 +3143,13 @@
         <v>259214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>598</v>
@@ -3176,13 +3158,13 @@
         <v>647743</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,16 +3176,16 @@
         <v>699</v>
       </c>
       <c r="D8" s="7">
-        <v>743564</v>
+        <v>743565</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1012</v>
@@ -3212,13 +3194,13 @@
         <v>1044284</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>1711</v>
@@ -3227,13 +3209,13 @@
         <v>1787849</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,7 +3227,7 @@
         <v>1070</v>
       </c>
       <c r="D9" s="7">
-        <v>1132094</v>
+        <v>1132095</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3301,13 +3283,13 @@
         <v>69302</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -3316,13 +3298,13 @@
         <v>52776</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -3331,13 +3313,13 @@
         <v>122078</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3334,13 @@
         <v>123718</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>179</v>
@@ -3367,13 +3349,13 @@
         <v>184454</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>292</v>
@@ -3382,13 +3364,13 @@
         <v>308172</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3438,13 @@
         <v>898311</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>638</v>
@@ -3471,13 +3453,13 @@
         <v>740595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>1537</v>
@@ -3486,13 +3468,13 @@
         <v>1638905</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3489,13 @@
         <v>1034672</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>1634</v>
@@ -3522,13 +3504,13 @@
         <v>1710176</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>2606</v>
@@ -3537,13 +3519,13 @@
         <v>2744849</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,7 +3581,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3618,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3737CB69-1161-4C1B-87E7-F78F80D1D8E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C8DD61-6491-41CD-9409-B591F3C0534E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3724,13 @@
         <v>322590</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>759</v>
@@ -3757,13 +3739,13 @@
         <v>421416</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>1200</v>
@@ -3772,13 +3754,13 @@
         <v>744007</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3775,13 @@
         <v>83574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>540</v>
@@ -3808,13 +3790,13 @@
         <v>318740</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>647</v>
@@ -3823,13 +3805,13 @@
         <v>402314</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3879,13 @@
         <v>423646</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>525</v>
@@ -3912,13 +3894,13 @@
         <v>423189</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>1055</v>
@@ -3927,13 +3909,13 @@
         <v>846835</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3930,13 @@
         <v>497357</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>1123</v>
@@ -3963,13 +3945,13 @@
         <v>876197</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>1487</v>
@@ -3978,13 +3960,13 @@
         <v>1373553</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4034,13 @@
         <v>116644</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -4067,13 +4049,13 @@
         <v>81240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>305</v>
@@ -4082,13 +4064,13 @@
         <v>197883</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4085,13 @@
         <v>87290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>203</v>
@@ -4118,13 +4100,13 @@
         <v>154167</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>285</v>
@@ -4133,13 +4115,13 @@
         <v>241457</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4189,13 @@
         <v>862880</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>1429</v>
@@ -4222,13 +4204,13 @@
         <v>925845</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>2560</v>
@@ -4237,13 +4219,13 @@
         <v>1788725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4240,13 @@
         <v>668220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>1866</v>
@@ -4273,13 +4255,13 @@
         <v>1349104</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>2419</v>
@@ -4288,13 +4270,13 @@
         <v>2017325</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,7 +4332,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P62-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P62-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F492757-121F-4ECD-AC94-343E85FFE46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F03DD747-12B5-4544-8C2F-5537952CE2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{94107CDB-C7D4-4EBC-97CE-5C0AF30D3506}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0CC1A06-1485-4DF1-A115-C87AA2243D9D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -80,25 +80,25 @@
     <t>75,36%</t>
   </si>
   <si>
-    <t>81,55%</t>
+    <t>81,81%</t>
   </si>
   <si>
     <t>38,85%</t>
   </si>
   <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>21,27%</t>
   </si>
   <si>
-    <t>18,45%</t>
+    <t>18,19%</t>
   </si>
   <si>
     <t>24,64%</t>
@@ -116,19 +116,19 @@
     <t>61,15%</t>
   </si>
   <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
   </si>
   <si>
     <t>46,84%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>30,0%</t>
   </si>
   <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
   </si>
   <si>
     <t>70,0%</t>
   </si>
   <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
   </si>
   <si>
     <t>91,41%</t>
   </si>
   <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>83,69%</t>
   </si>
   <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,103 +197,97 @@
     <t>41,92%</t>
   </si>
   <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>22,28%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
   </si>
   <si>
     <t>30,9%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
+    <t>35,8%</t>
   </si>
   <si>
     <t>58,08%</t>
   </si>
   <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
   </si>
   <si>
     <t>77,72%</t>
   </si>
   <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
   </si>
   <si>
     <t>69,1%</t>
   </si>
   <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>64,2%</t>
   </si>
   <si>
     <t>54,56%</t>
   </si>
   <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>35,61%</t>
   </si>
   <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
   </si>
   <si>
     <t>45,44%</t>
   </si>
   <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
   </si>
   <si>
     <t>64,39%</t>
   </si>
   <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -305,397 +299,406 @@
     <t>70,02%</t>
   </si>
   <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>45,41%</t>
   </si>
   <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
   </si>
   <si>
     <t>55,23%</t>
   </si>
   <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>54,59%</t>
   </si>
   <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
   </si>
   <si>
     <t>44,77%</t>
   </si>
   <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
   </si>
   <si>
     <t>26,72%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>20,37%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
   </si>
   <si>
     <t>73,28%</t>
   </si>
   <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
   </si>
   <si>
     <t>85,26%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
   </si>
   <si>
     <t>79,63%</t>
   </si>
   <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
   </si>
   <si>
     <t>16,05%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>83,95%</t>
   </si>
   <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>78,83%</t>
   </si>
   <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
   </si>
   <si>
     <t>44,04%</t>
   </si>
   <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
   </si>
   <si>
     <t>28,99%</t>
   </si>
   <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
   </si>
   <si>
     <t>35,53%</t>
   </si>
   <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
   </si>
   <si>
     <t>55,96%</t>
   </si>
   <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
   </si>
   <si>
     <t>71,01%</t>
   </si>
   <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2015 (Tasa respuesta: 63,37%)</t>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2016 (Tasa respuesta: 63,37%)</t>
   </si>
   <si>
     <t>72,46%</t>
   </si>
   <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
   </si>
   <si>
     <t>47,1%</t>
   </si>
   <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
   </si>
   <si>
     <t>57,26%</t>
   </si>
   <si>
-    <t>59,89%</t>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
   </si>
   <si>
     <t>27,54%</t>
   </si>
   <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
   </si>
   <si>
     <t>52,9%</t>
   </si>
   <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
   </si>
   <si>
     <t>42,74%</t>
   </si>
   <si>
-    <t>40,11%</t>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
   </si>
   <si>
     <t>80,11%</t>
   </si>
   <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
   </si>
   <si>
     <t>35,9%</t>
   </si>
   <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>22,25%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
   <si>
     <t>28,37%</t>
   </si>
   <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
   </si>
   <si>
     <t>64,1%</t>
   </si>
   <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
   </si>
   <si>
     <t>77,75%</t>
   </si>
   <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>71,63%</t>
   </si>
   <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
   </si>
   <si>
     <t>46,47%</t>
   </si>
   <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
   </si>
   <si>
     <t>30,22%</t>
   </si>
   <si>
-    <t>32,07%</t>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
   </si>
   <si>
     <t>37,39%</t>
   </si>
   <si>
-    <t>35,93%</t>
+    <t>35,92%</t>
   </si>
   <si>
     <t>38,8%</t>
@@ -704,16 +707,19 @@
     <t>53,53%</t>
   </si>
   <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
   </si>
   <si>
     <t>69,78%</t>
   </si>
   <si>
-    <t>67,93%</t>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
   </si>
   <si>
     <t>62,61%</t>
@@ -722,7 +728,7 @@
     <t>61,2%</t>
   </si>
   <si>
-    <t>64,07%</t>
+    <t>64,08%</t>
   </si>
   <si>
     <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
@@ -839,9 +845,6 @@
     <t>57,2%</t>
   </si>
   <si>
-    <t>49,52%</t>
-  </si>
-  <si>
     <t>64,54%</t>
   </si>
   <si>
@@ -867,9 +870,6 @@
   </si>
   <si>
     <t>35,46%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
   </si>
   <si>
     <t>65,49%</t>
@@ -1347,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67BD124-BA5C-494D-BD06-FCD36E935BA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48087B58-600A-4B7D-BD55-8B6B7FCE5752}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1814,10 +1814,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1832,13 @@
         <v>84051</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -1847,13 +1847,13 @@
         <v>143820</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>215</v>
@@ -1862,13 +1862,13 @@
         <v>227870</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1936,13 @@
         <v>741679</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>558</v>
@@ -1954,10 +1954,10 @@
         <v>23</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>1318</v>
@@ -1966,13 +1966,13 @@
         <v>1319809</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1987,13 @@
         <v>617664</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>1750</v>
@@ -2005,10 +2005,10 @@
         <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>2368</v>
@@ -2017,13 +2017,13 @@
         <v>2386075</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2079,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8026891-C4D2-435B-B998-D94802CEB8ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAC9B45-3F43-4158-9AE4-98FB2D0842E9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2115,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2222,13 +2222,13 @@
         <v>550111</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>503</v>
@@ -2237,13 +2237,13 @@
         <v>537920</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>1004</v>
@@ -2252,13 +2252,13 @@
         <v>1088030</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2273,13 @@
         <v>235484</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>601</v>
@@ -2288,13 +2288,13 @@
         <v>646543</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>827</v>
@@ -2303,13 +2303,13 @@
         <v>882028</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2377,13 @@
         <v>275453</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>152</v>
@@ -2392,13 +2392,13 @@
         <v>171612</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>399</v>
@@ -2407,13 +2407,13 @@
         <v>447066</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2428,13 @@
         <v>755483</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>929</v>
@@ -2443,13 +2443,13 @@
         <v>992649</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>1654</v>
@@ -2458,13 +2458,13 @@
         <v>1748131</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2532,13 @@
         <v>45626</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -2547,13 +2547,13 @@
         <v>35576</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -2562,13 +2562,13 @@
         <v>81201</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2583,13 @@
         <v>116164</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>169</v>
@@ -2598,13 +2598,13 @@
         <v>186129</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>281</v>
@@ -2613,13 +2613,13 @@
         <v>302294</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2687,13 @@
         <v>871189</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>686</v>
@@ -2702,13 +2702,13 @@
         <v>745108</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>1472</v>
@@ -2717,13 +2717,13 @@
         <v>1616297</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2738,13 @@
         <v>1107132</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>1699</v>
@@ -2753,13 +2753,13 @@
         <v>1825320</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>2762</v>
@@ -2768,13 +2768,13 @@
         <v>2932453</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,7 +2830,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAFA1AE-9BCA-4D87-9899-8D8E5750F65F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F42415-2AD0-4715-A2FF-0BFD3E1CA8CC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2973,13 @@
         <v>440479</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>366</v>
@@ -2988,13 +2988,13 @@
         <v>428605</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>830</v>
@@ -3003,13 +3003,13 @@
         <v>869084</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3024,13 @@
         <v>167389</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>443</v>
@@ -3039,13 +3039,13 @@
         <v>481439</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>603</v>
@@ -3054,13 +3054,13 @@
         <v>648828</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,7 +3176,7 @@
         <v>699</v>
       </c>
       <c r="D8" s="7">
-        <v>743565</v>
+        <v>743564</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>185</v>
@@ -3227,7 +3227,7 @@
         <v>1070</v>
       </c>
       <c r="D9" s="7">
-        <v>1132095</v>
+        <v>1132094</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3435,7 +3435,7 @@
         <v>899</v>
       </c>
       <c r="D13" s="7">
-        <v>898311</v>
+        <v>898310</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>212</v>
@@ -3456,10 +3456,10 @@
         <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>1537</v>
@@ -3468,13 +3468,13 @@
         <v>1638905</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3489,13 @@
         <v>1034672</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>1634</v>
@@ -3504,13 +3504,13 @@
         <v>1710176</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>2606</v>
@@ -3519,13 +3519,13 @@
         <v>2744849</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,7 +3537,7 @@
         <v>1871</v>
       </c>
       <c r="D15" s="7">
-        <v>1932983</v>
+        <v>1932982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C8DD61-6491-41CD-9409-B591F3C0534E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A4496E-1121-44B5-85DB-03F9D922BE2B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3724,13 @@
         <v>322590</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>759</v>
@@ -3739,13 +3739,13 @@
         <v>421416</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>1200</v>
@@ -3754,13 +3754,13 @@
         <v>744007</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3775,13 @@
         <v>83574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>540</v>
@@ -3790,13 +3790,13 @@
         <v>318740</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>647</v>
@@ -3805,13 +3805,13 @@
         <v>402314</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3879,13 @@
         <v>423646</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>525</v>
@@ -3894,13 +3894,13 @@
         <v>423189</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>1055</v>
@@ -3909,13 +3909,13 @@
         <v>846835</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3930,13 @@
         <v>497357</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>1123</v>
@@ -3945,13 +3945,13 @@
         <v>876197</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>1487</v>
@@ -3960,13 +3960,13 @@
         <v>1373553</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4034,13 @@
         <v>116644</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -4049,13 +4049,13 @@
         <v>81240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>305</v>
@@ -4064,13 +4064,13 @@
         <v>197883</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4085,13 @@
         <v>87290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>203</v>
@@ -4222,7 +4222,7 @@
         <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>290</v>
@@ -4276,7 +4276,7 @@
         <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,7 +4332,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P62-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P62-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F03DD747-12B5-4544-8C2F-5537952CE2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4356CE7B-1433-4829-8A30-CDD6BA923E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0CC1A06-1485-4DF1-A115-C87AA2243D9D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13D068CE-A728-4689-82A7-1FC36545C760}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población según si percibe alguna pensión en 2007 (Tasa respuesta: 56,61%)</t>
   </si>
@@ -71,223 +71,235 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>78,73%</t>
   </si>
   <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
     <t>75,36%</t>
   </si>
   <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>64,39%</t>
   </si>
   <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -299,217 +311,217 @@
     <t>70,02%</t>
   </si>
   <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
   </si>
   <si>
     <t>45,41%</t>
   </si>
   <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
   </si>
   <si>
     <t>55,23%</t>
   </si>
   <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
   </si>
   <si>
     <t>54,59%</t>
   </si>
   <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
   </si>
   <si>
     <t>44,77%</t>
   </si>
   <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
   </si>
   <si>
     <t>26,72%</t>
   </si>
   <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
   </si>
   <si>
     <t>20,37%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
   </si>
   <si>
     <t>73,28%</t>
   </si>
   <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
   </si>
   <si>
     <t>85,26%</t>
   </si>
   <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
   </si>
   <si>
     <t>79,63%</t>
   </si>
   <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
   </si>
   <si>
     <t>16,05%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
   </si>
   <si>
     <t>83,95%</t>
   </si>
   <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>78,83%</t>
   </si>
   <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>44,04%</t>
   </si>
   <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
   </si>
   <si>
     <t>28,99%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
   </si>
   <si>
     <t>35,53%</t>
   </si>
   <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
   </si>
   <si>
     <t>55,96%</t>
   </si>
   <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
   </si>
   <si>
     <t>71,01%</t>
   </si>
   <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
   </si>
   <si>
     <t>Población según si percibe alguna pensión en 2016 (Tasa respuesta: 63,37%)</t>
@@ -518,178 +530,178 @@
     <t>72,46%</t>
   </si>
   <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
   </si>
   <si>
     <t>47,1%</t>
   </si>
   <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
   </si>
   <si>
     <t>57,26%</t>
   </si>
   <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
   </si>
   <si>
     <t>27,54%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
   </si>
   <si>
     <t>52,9%</t>
   </si>
   <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
   </si>
   <si>
     <t>42,74%</t>
   </si>
   <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
   </si>
   <si>
     <t>80,11%</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
   </si>
   <si>
     <t>35,9%</t>
   </si>
   <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
   </si>
   <si>
     <t>22,25%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
   </si>
   <si>
     <t>28,37%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
   </si>
   <si>
     <t>64,1%</t>
   </si>
   <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
   </si>
   <si>
     <t>77,75%</t>
   </si>
   <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
   </si>
   <si>
     <t>71,63%</t>
   </si>
   <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
   </si>
   <si>
     <t>46,47%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
   </si>
   <si>
     <t>30,22%</t>
   </si>
   <si>
-    <t>28,25%</t>
+    <t>28,33%</t>
   </si>
   <si>
     <t>32,23%</t>
@@ -698,7 +710,7 @@
     <t>37,39%</t>
   </si>
   <si>
-    <t>35,92%</t>
+    <t>35,95%</t>
   </si>
   <si>
     <t>38,8%</t>
@@ -707,10 +719,10 @@
     <t>53,53%</t>
   </si>
   <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
   </si>
   <si>
     <t>69,78%</t>
@@ -719,7 +731,7 @@
     <t>67,77%</t>
   </si>
   <si>
-    <t>71,75%</t>
+    <t>71,67%</t>
   </si>
   <si>
     <t>62,61%</t>
@@ -728,7 +740,7 @@
     <t>61,2%</t>
   </si>
   <si>
-    <t>64,08%</t>
+    <t>64,05%</t>
   </si>
   <si>
     <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
@@ -737,130 +749,133 @@
     <t>79,42%</t>
   </si>
   <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>56,94%</t>
   </si>
   <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
   </si>
   <si>
     <t>64,9%</t>
   </si>
   <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
   </si>
   <si>
     <t>43,06%</t>
   </si>
   <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
   </si>
   <si>
     <t>35,1%</t>
   </si>
   <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
   </si>
   <si>
     <t>46,0%</t>
   </si>
   <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
   </si>
   <si>
     <t>38,14%</t>
   </si>
   <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
   </si>
   <si>
     <t>54,0%</t>
   </si>
   <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
   </si>
   <si>
     <t>67,43%</t>
   </si>
   <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
   </si>
   <si>
     <t>61,86%</t>
   </si>
   <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
   </si>
   <si>
     <t>57,2%</t>
   </si>
   <si>
-    <t>64,54%</t>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
   </si>
   <si>
     <t>34,51%</t>
   </si>
   <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
   </si>
   <si>
     <t>45,04%</t>
   </si>
   <si>
-    <t>40,67%</t>
+    <t>40,68%</t>
   </si>
   <si>
     <t>49,49%</t>
@@ -869,16 +884,19 @@
     <t>42,8%</t>
   </si>
   <si>
-    <t>35,46%</t>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
   </si>
   <si>
     <t>65,49%</t>
   </si>
   <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
   </si>
   <si>
     <t>54,96%</t>
@@ -887,55 +905,55 @@
     <t>50,51%</t>
   </si>
   <si>
-    <t>59,33%</t>
+    <t>59,32%</t>
   </si>
   <si>
     <t>56,36%</t>
   </si>
   <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
   </si>
   <si>
     <t>40,7%</t>
   </si>
   <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
   </si>
   <si>
     <t>47,0%</t>
   </si>
   <si>
-    <t>52,42%</t>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>43,64%</t>
   </si>
   <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
   </si>
   <si>
     <t>53,0%</t>
   </si>
   <si>
-    <t>47,58%</t>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48087B58-600A-4B7D-BD55-8B6B7FCE5752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4FB54B-84A6-40C4-A8A9-9D8A711C5751}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1814,10 +1832,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1850,13 @@
         <v>84051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -1847,13 +1865,13 @@
         <v>143820</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>215</v>
@@ -1862,13 +1880,13 @@
         <v>227870</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1954,13 @@
         <v>741679</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>558</v>
@@ -1951,13 +1969,13 @@
         <v>578130</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1318</v>
@@ -1966,13 +1984,13 @@
         <v>1319809</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +2005,13 @@
         <v>617664</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1750</v>
@@ -2002,13 +2020,13 @@
         <v>1768410</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>2368</v>
@@ -2017,13 +2035,13 @@
         <v>2386075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2097,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAC9B45-3F43-4158-9AE4-98FB2D0842E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC4DBB-29D9-4672-994F-A600414B7AF4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2115,7 +2133,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2222,13 +2240,13 @@
         <v>550111</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>503</v>
@@ -2237,13 +2255,13 @@
         <v>537920</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1004</v>
@@ -2252,13 +2270,13 @@
         <v>1088030</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2291,13 @@
         <v>235484</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>601</v>
@@ -2288,13 +2306,13 @@
         <v>646543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>827</v>
@@ -2303,13 +2321,13 @@
         <v>882028</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2395,13 @@
         <v>275453</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>152</v>
@@ -2392,13 +2410,13 @@
         <v>171612</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>399</v>
@@ -2407,13 +2425,13 @@
         <v>447066</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2446,13 @@
         <v>755483</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>929</v>
@@ -2443,13 +2461,13 @@
         <v>992649</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>1654</v>
@@ -2458,13 +2476,13 @@
         <v>1748131</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2550,13 @@
         <v>45626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -2547,13 +2565,13 @@
         <v>35576</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -2562,13 +2580,13 @@
         <v>81201</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2601,13 @@
         <v>116164</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>169</v>
@@ -2598,13 +2616,13 @@
         <v>186129</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>281</v>
@@ -2613,13 +2631,13 @@
         <v>302294</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2705,13 @@
         <v>871189</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>686</v>
@@ -2702,13 +2720,13 @@
         <v>745108</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1472</v>
@@ -2717,13 +2735,13 @@
         <v>1616297</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2756,13 @@
         <v>1107132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1699</v>
@@ -2753,13 +2771,13 @@
         <v>1825320</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>2762</v>
@@ -2768,13 +2786,13 @@
         <v>2932453</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,7 +2848,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F42415-2AD0-4715-A2FF-0BFD3E1CA8CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118014EE-6E7B-4F7A-BC9D-E4008E8A5105}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2884,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2991,13 @@
         <v>440479</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>366</v>
@@ -2988,13 +3006,13 @@
         <v>428605</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>830</v>
@@ -3003,13 +3021,13 @@
         <v>869084</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3042,13 @@
         <v>167389</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>443</v>
@@ -3039,13 +3057,13 @@
         <v>481439</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>603</v>
@@ -3054,13 +3072,13 @@
         <v>648828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3146,13 @@
         <v>388530</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>227</v>
@@ -3143,13 +3161,13 @@
         <v>259214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>598</v>
@@ -3158,13 +3176,13 @@
         <v>647743</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3197,13 @@
         <v>743564</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1012</v>
@@ -3194,13 +3212,13 @@
         <v>1044284</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>1711</v>
@@ -3209,13 +3227,13 @@
         <v>1787849</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3301,13 @@
         <v>69302</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -3298,13 +3316,13 @@
         <v>52776</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -3313,13 +3331,13 @@
         <v>122078</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3352,13 @@
         <v>123718</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>179</v>
@@ -3349,13 +3367,13 @@
         <v>184454</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>292</v>
@@ -3364,13 +3382,13 @@
         <v>308172</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,16 +3453,16 @@
         <v>899</v>
       </c>
       <c r="D13" s="7">
-        <v>898310</v>
+        <v>898311</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>638</v>
@@ -3453,13 +3471,13 @@
         <v>740595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>1537</v>
@@ -3468,13 +3486,13 @@
         <v>1638905</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3507,13 @@
         <v>1034672</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>1634</v>
@@ -3504,13 +3522,13 @@
         <v>1710176</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>2606</v>
@@ -3519,13 +3537,13 @@
         <v>2744849</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,7 +3555,7 @@
         <v>1871</v>
       </c>
       <c r="D15" s="7">
-        <v>1932982</v>
+        <v>1932983</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3581,7 +3599,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A4496E-1121-44B5-85DB-03F9D922BE2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71860B1F-3A08-4CF0-8326-CD25B21EFF19}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3742,13 @@
         <v>322590</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>759</v>
@@ -3739,13 +3757,13 @@
         <v>421416</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>1200</v>
@@ -3754,13 +3772,13 @@
         <v>744007</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3793,13 @@
         <v>83574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>540</v>
@@ -3790,13 +3808,13 @@
         <v>318740</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>647</v>
@@ -3805,13 +3823,13 @@
         <v>402314</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3897,13 @@
         <v>423646</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>525</v>
@@ -3894,13 +3912,13 @@
         <v>423189</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>1055</v>
@@ -3909,13 +3927,13 @@
         <v>846835</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3948,13 @@
         <v>497357</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>1123</v>
@@ -3945,13 +3963,13 @@
         <v>876197</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>1487</v>
@@ -3960,13 +3978,13 @@
         <v>1373553</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4052,13 @@
         <v>116644</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -4049,13 +4067,13 @@
         <v>81240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>305</v>
@@ -4064,13 +4082,13 @@
         <v>197883</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4103,13 @@
         <v>87290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>203</v>
@@ -4100,13 +4118,13 @@
         <v>154167</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>285</v>
@@ -4115,13 +4133,13 @@
         <v>241457</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4207,13 @@
         <v>862880</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>1429</v>
@@ -4204,13 +4222,13 @@
         <v>925845</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>2560</v>
@@ -4219,13 +4237,13 @@
         <v>1788725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4258,13 @@
         <v>668220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>1866</v>
@@ -4255,13 +4273,13 @@
         <v>1349104</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>2419</v>
@@ -4270,13 +4288,13 @@
         <v>2017325</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,7 +4350,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P62-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P62-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4356CE7B-1433-4829-8A30-CDD6BA923E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{249CBD01-67F0-486E-9E99-945592D86B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13D068CE-A728-4689-82A7-1FC36545C760}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{40D9FDAD-5735-42D2-9B87-580B22B0AE40}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="307">
   <si>
     <t>Población según si percibe alguna pensión en 2007 (Tasa respuesta: 56,61%)</t>
   </si>
@@ -746,214 +746,220 @@
     <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
   </si>
   <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4FB54B-84A6-40C4-A8A9-9D8A711C5751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843E7A02-4D86-4222-A5AE-317F104B3C57}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1722,7 +1728,7 @@
         <v>1311</v>
       </c>
       <c r="N8" s="7">
-        <v>1310211</v>
+        <v>1310210</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1773,7 +1779,7 @@
         <v>1560</v>
       </c>
       <c r="N9" s="7">
-        <v>1565632</v>
+        <v>1565631</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2017,7 +2023,7 @@
         <v>1750</v>
       </c>
       <c r="I14" s="7">
-        <v>1768410</v>
+        <v>1768411</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2032,7 +2038,7 @@
         <v>2368</v>
       </c>
       <c r="N14" s="7">
-        <v>2386075</v>
+        <v>2386074</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2068,7 +2074,7 @@
         <v>2308</v>
       </c>
       <c r="I15" s="7">
-        <v>2346540</v>
+        <v>2346541</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2083,7 +2089,7 @@
         <v>3686</v>
       </c>
       <c r="N15" s="7">
-        <v>3705884</v>
+        <v>3705883</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FC4DBB-29D9-4672-994F-A600414B7AF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CA0778-5FB1-4085-A628-08B110DF3762}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118014EE-6E7B-4F7A-BC9D-E4008E8A5105}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4D1F08-69F4-4446-8D36-56D1AD0C5962}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3018,7 +3024,7 @@
         <v>830</v>
       </c>
       <c r="N4" s="7">
-        <v>869084</v>
+        <v>869083</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>168</v>
@@ -3054,7 +3060,7 @@
         <v>443</v>
       </c>
       <c r="I5" s="7">
-        <v>481439</v>
+        <v>481438</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>174</v>
@@ -3105,7 +3111,7 @@
         <v>809</v>
       </c>
       <c r="I6" s="7">
-        <v>910044</v>
+        <v>910043</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3120,7 +3126,7 @@
         <v>1433</v>
       </c>
       <c r="N6" s="7">
-        <v>1517912</v>
+        <v>1517911</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3194,7 +3200,7 @@
         <v>699</v>
       </c>
       <c r="D8" s="7">
-        <v>743564</v>
+        <v>743565</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>189</v>
@@ -3245,7 +3251,7 @@
         <v>1070</v>
       </c>
       <c r="D9" s="7">
-        <v>1132094</v>
+        <v>1132095</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3534,7 +3540,7 @@
         <v>2606</v>
       </c>
       <c r="N14" s="7">
-        <v>2744849</v>
+        <v>2744848</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>231</v>
@@ -3585,7 +3591,7 @@
         <v>4143</v>
       </c>
       <c r="N15" s="7">
-        <v>4383754</v>
+        <v>4383753</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3618,7 +3624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71860B1F-3A08-4CF0-8326-CD25B21EFF19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C1AC58-50E8-443C-9C51-066428F62CFD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3739,7 +3745,7 @@
         <v>441</v>
       </c>
       <c r="D4" s="7">
-        <v>322590</v>
+        <v>298869</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>235</v>
@@ -3754,7 +3760,7 @@
         <v>759</v>
       </c>
       <c r="I4" s="7">
-        <v>421416</v>
+        <v>378251</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>238</v>
@@ -3769,7 +3775,7 @@
         <v>1200</v>
       </c>
       <c r="N4" s="7">
-        <v>744007</v>
+        <v>677120</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>241</v>
@@ -3790,7 +3796,7 @@
         <v>107</v>
       </c>
       <c r="D5" s="7">
-        <v>83574</v>
+        <v>82871</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>244</v>
@@ -3805,7 +3811,7 @@
         <v>540</v>
       </c>
       <c r="I5" s="7">
-        <v>318740</v>
+        <v>291086</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>247</v>
@@ -3820,7 +3826,7 @@
         <v>647</v>
       </c>
       <c r="N5" s="7">
-        <v>402314</v>
+        <v>373957</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>250</v>
@@ -3841,7 +3847,7 @@
         <v>548</v>
       </c>
       <c r="D6" s="7">
-        <v>406164</v>
+        <v>381740</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3862,7 @@
         <v>1299</v>
       </c>
       <c r="I6" s="7">
-        <v>740156</v>
+        <v>669337</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3871,7 +3877,7 @@
         <v>1847</v>
       </c>
       <c r="N6" s="7">
-        <v>1146321</v>
+        <v>1051077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3894,7 +3900,7 @@
         <v>530</v>
       </c>
       <c r="D7" s="7">
-        <v>423646</v>
+        <v>392185</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>253</v>
@@ -3909,7 +3915,7 @@
         <v>525</v>
       </c>
       <c r="I7" s="7">
-        <v>423189</v>
+        <v>488387</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>256</v>
@@ -3924,7 +3930,7 @@
         <v>1055</v>
       </c>
       <c r="N7" s="7">
-        <v>846835</v>
+        <v>880573</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>259</v>
@@ -3945,7 +3951,7 @@
         <v>364</v>
       </c>
       <c r="D8" s="7">
-        <v>497357</v>
+        <v>510515</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>262</v>
@@ -3960,7 +3966,7 @@
         <v>1123</v>
       </c>
       <c r="I8" s="7">
-        <v>876197</v>
+        <v>797507</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>265</v>
@@ -3975,7 +3981,7 @@
         <v>1487</v>
       </c>
       <c r="N8" s="7">
-        <v>1373553</v>
+        <v>1308021</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>268</v>
@@ -3996,7 +4002,7 @@
         <v>894</v>
       </c>
       <c r="D9" s="7">
-        <v>921003</v>
+        <v>902700</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4011,7 +4017,7 @@
         <v>1648</v>
       </c>
       <c r="I9" s="7">
-        <v>1299386</v>
+        <v>1285894</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4026,7 +4032,7 @@
         <v>2542</v>
       </c>
       <c r="N9" s="7">
-        <v>2220388</v>
+        <v>2188594</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4049,7 +4055,7 @@
         <v>160</v>
       </c>
       <c r="D10" s="7">
-        <v>116644</v>
+        <v>108345</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>271</v>
@@ -4064,7 +4070,7 @@
         <v>145</v>
       </c>
       <c r="I10" s="7">
-        <v>81240</v>
+        <v>73973</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>274</v>
@@ -4079,7 +4085,7 @@
         <v>305</v>
       </c>
       <c r="N10" s="7">
-        <v>197883</v>
+        <v>182318</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>277</v>
@@ -4100,7 +4106,7 @@
         <v>82</v>
       </c>
       <c r="D11" s="7">
-        <v>87290</v>
+        <v>85051</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>280</v>
@@ -4115,7 +4121,7 @@
         <v>203</v>
       </c>
       <c r="I11" s="7">
-        <v>154167</v>
+        <v>142641</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>283</v>
@@ -4130,7 +4136,7 @@
         <v>285</v>
       </c>
       <c r="N11" s="7">
-        <v>241457</v>
+        <v>227692</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>286</v>
@@ -4151,7 +4157,7 @@
         <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>203934</v>
+        <v>193396</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4166,7 +4172,7 @@
         <v>348</v>
       </c>
       <c r="I12" s="7">
-        <v>235407</v>
+        <v>216614</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4181,7 +4187,7 @@
         <v>590</v>
       </c>
       <c r="N12" s="7">
-        <v>439340</v>
+        <v>410010</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4204,7 +4210,7 @@
         <v>1131</v>
       </c>
       <c r="D13" s="7">
-        <v>862880</v>
+        <v>799398</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>289</v>
@@ -4219,7 +4225,7 @@
         <v>1429</v>
       </c>
       <c r="I13" s="7">
-        <v>925845</v>
+        <v>940611</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>292</v>
@@ -4234,7 +4240,7 @@
         <v>2560</v>
       </c>
       <c r="N13" s="7">
-        <v>1788725</v>
+        <v>1740010</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>295</v>
@@ -4255,46 +4261,46 @@
         <v>553</v>
       </c>
       <c r="D14" s="7">
-        <v>668220</v>
+        <v>678437</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>1866</v>
       </c>
       <c r="I14" s="7">
-        <v>1349104</v>
+        <v>1231234</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>2419</v>
       </c>
       <c r="N14" s="7">
-        <v>2017325</v>
+        <v>1909671</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4312,7 @@
         <v>1684</v>
       </c>
       <c r="D15" s="7">
-        <v>1531100</v>
+        <v>1477835</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4321,7 +4327,7 @@
         <v>3295</v>
       </c>
       <c r="I15" s="7">
-        <v>2274949</v>
+        <v>2171845</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4342,7 @@
         <v>4979</v>
       </c>
       <c r="N15" s="7">
-        <v>3806050</v>
+        <v>3649681</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
